--- a/biology/Médecine/Maladie_d'Addison/Maladie_d'Addison.xlsx
+++ b/biology/Médecine/Maladie_d'Addison/Maladie_d'Addison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie d'Addison, ou insuffisance surrénalienne chronique primaire, est une maladie endocrinienne rare caractérisée par le défaut de sécrétion des hormones produites par les glandes surrénales : glucocorticoïdes (cortisol) et minéralocorticoïdes (aldostérone). Le terme « primaire » signifie que la maladie est en rapport direct avec une atteinte des glandes surrénales et exclut donc entre autres les causes médicamenteuses. C'est une insuffisance surrénalienne lente qui détruit progressivement la corticosurrénale.
 Son nom rend hommage au médecin britannique Thomas Addison.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les synonymes sont nombreux[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les synonymes sont nombreux :
 hypocortisolisme acquis ;
 maladie d'Addison primaire ;
 maladie d'Addison type classique ;
 maladie d'Addison type auto-immune ;
 insuffisance surrénalienne chronique acquise ;
 insuffisance surrénalienne chronique primaire ;
-hyperpigmentation : « maladie bronzée » (en raison d'une fréquente modification de la coloration de la peau qui fonce chez les malades)[2].</t>
+hyperpigmentation : « maladie bronzée » (en raison d'une fréquente modification de la coloration de la peau qui fonce chez les malades).</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie a été nommée d'après Thomas Addison[3], médecin britannique né en avril 1793 et mort le 29 juin 1860, qui a été le premier à décrire des changements de pigmentation relatifs à la maladie qui portera son nom sur la proposition d'Armand Trousseau.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie a été nommée d'après Thomas Addison, médecin britannique né en avril 1793 et mort le 29 juin 1860, qui a été le premier à décrire des changements de pigmentation relatifs à la maladie qui portera son nom sur la proposition d'Armand Trousseau.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une maladie rare, avec une incidence annuelle comprise entre 4 et 6 nouveaux cas par million d'habitants, tendant à croître avec le temps[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une maladie rare, avec une incidence annuelle comprise entre 4 et 6 nouveaux cas par million d'habitants, tendant à croître avec le temps.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La tuberculose était autrefois la première cause d'insuffisance surrénalienne par tuberculose surrénalienne bilatérale. Actuellement la cause principale est la rétraction corticale auto-immune.
 Les autres causes rares sont les métastases surrénaliennes, l'hémorragie bilatérale des surrénales et les causes infectieuses.
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,13 +664,15 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se traduit notamment par une asthénie (avec courbatures), une hypotension artérielle (surtout hypotension orthostatique), un amaigrissement (avec anorexie) et une mélanodermie (hyperpigmentation au niveau des points de frottement et des muqueuses due à l'origine commune des voies de contrôle de la mélanogenèse et de l'axe hypothalamo-hypophyso-corticosurrenalien, voir proopiomélanocortine)[5] d'où le second nom de « maladie bronzée » parfois donné à la maladie d'Addison.
-On observe une hyponatrémie (présente dans près de 85 % des cas[6]) et une hyperkaliémie (présentes dans un tiers des cas[6]) dues à l'insuffisance d'aldostérone (impliquée dans la réabsorption rénale du sodium et l'excrétion rénale du potassium), ce qui explique un goût prononcé pour le sel chez ces patients. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se traduit notamment par une asthénie (avec courbatures), une hypotension artérielle (surtout hypotension orthostatique), un amaigrissement (avec anorexie) et une mélanodermie (hyperpigmentation au niveau des points de frottement et des muqueuses due à l'origine commune des voies de contrôle de la mélanogenèse et de l'axe hypothalamo-hypophyso-corticosurrenalien, voir proopiomélanocortine) d'où le second nom de « maladie bronzée » parfois donné à la maladie d'Addison.
+On observe une hyponatrémie (présente dans près de 85 % des cas) et une hyperkaliémie (présentes dans un tiers des cas) dues à l'insuffisance d'aldostérone (impliquée dans la réabsorption rénale du sodium et l'excrétion rénale du potassium), ce qui explique un goût prononcé pour le sel chez ces patients. 
 On peut également observer une hypoglycémie (surtout le matin à jeun) expliquée par l'insuffisance de cortisol (ayant un rôle hyperglycémiant).
-Le diagnostic est, en pratique, difficile, plus de la moitié des patients atteints ayant vu plusieurs médecins avant que le diagnostic soit porté[7].
-La maladie d'Addison peut être associée avec d'autres maladies de mécanisme auto-immune comme le vitiligo, le diabète de type I et certaines formes d'hypothyroïdie[7].
+Le diagnostic est, en pratique, difficile, plus de la moitié des patients atteints ayant vu plusieurs médecins avant que le diagnostic soit porté.
+La maladie d'Addison peut être associée avec d'autres maladies de mécanisme auto-immune comme le vitiligo, le diabète de type I et certaines formes d'hypothyroïdie.
 </t>
         </is>
       </c>
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dosage du cortisol sanguin est bas mais la variation spontanée du taux de ce dernier rend son interprétation délicate.
 Ce dosage peut être précisé par un test au Synacthène : l'injection de ce produit, équivalant à celle de l'hormone corticotrope, doit faire augmenter rapidement le taux de cortisol dans le sang, sauf en cas d'insuffisance surrénalienne. 
@@ -694,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -712,7 +736,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Un traitement de substitution est entrepris et consiste à apporter des hormones artificielles, l'hydrocortisone et la fludrocortisone, afin de remplacer celles qui ne sont plus produites par les surrénales. Les hormones se présentent sous la forme de comprimés à prendre quotidiennement et à vie par voie orale.
 Il est très important de ne jamais oublier son traitement puisque les surrénales ne produisant plus de cortisol et le cortisol étant une hormone vitale, l'oubli du traitement peut amener une ISA (insuffisance surrénalienne aigüe) donc une hospitalisation.
@@ -727,7 +753,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -745,7 +771,9 @@
           <t>Complication</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insuffisance surrénalienne aigüe en est la complication principale et peut être fatale par collapsus vasculaire sur pertes majeures de sel entraînant une chute des résistances périphériques[réf. nécessaire].
 Les débuts d'une insuffisance surrénalienne aigüe se traduisent généralement par des vomissements importants ainsi que des diarrhées et une asthénie plus importante que d'habitude. Un virus, un choc psychologique, le stress sont des facteurs qui peuvent favoriser l'apparition d'une crise[réf. nécessaire].
@@ -759,7 +787,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -777,7 +805,9 @@
           <t>Physiopathologie de la maladie d'Addison</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour bien comprendre la maladie d'Addison, il convient de décrire le fonctionnement normal d'une glande surrénale. Une glande surrénale est constituée de deux parties : 
 une corticosurrénale, qui forme la partie périphérique (« au pourtour ») de la glande ; on y distingue trois zones et elle synthétise des hormones dérivées du cholestérol :
@@ -802,7 +832,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Maladie_d%27Addison</t>
+          <t>Maladie_d'Addison</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -822,12 +852,51 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Personnalités atteintes de la maladie d'Addison
-La maladie d'Addison est un des deux diagnostics rétrospectifs envisagés en général comme cause de la mort de l'écrivaine Jane Austen morte en 1817 à 41 ans[8].
+          <t>Personnalités atteintes de la maladie d'Addison</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La maladie d'Addison est un des deux diagnostics rétrospectifs envisagés en général comme cause de la mort de l'écrivaine Jane Austen morte en 1817 à 41 ans.
 Sainte Élisabeth de la Trinité.
-Le président américain John F. Kennedy[9] en était atteint, probablement dans le cadre d'une polyendocrinopathie auto-immune de type 2[10], ce qui se traduisait pour lui, en particulier, par de terribles problèmes de dos jusqu'à sa mort (assassiné en 1963 à 46 ans).
-Cinéma et télévision
-Le film Agathe Cléry d'Étienne Chatiliez repose sur cette maladie : le personnage principal (interprété par Valérie Lemercier), raciste, y voit sa peau noircir de jour en jour à cause de la maladie.
+Le président américain John F. Kennedy en était atteint, probablement dans le cadre d'une polyendocrinopathie auto-immune de type 2, ce qui se traduisait pour lui, en particulier, par de terribles problèmes de dos jusqu'à sa mort (assassiné en 1963 à 46 ans).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Maladie_d'Addison</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_d%27Addison</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture populaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cinéma et télévision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le film Agathe Cléry d'Étienne Chatiliez repose sur cette maladie : le personnage principal (interprété par Valérie Lemercier), raciste, y voit sa peau noircir de jour en jour à cause de la maladie.
 Dans l'épisode 4 de la première saison de Flashforward, un patient, qui s'est vu noir six mois plus tard, est atteint de cette maladie.
 Dans l'épisode 1 de la saison 3 de Dr House, la « maladie mystère » d'un des patients est la maladie d'Addison.
 Dans la série Law &amp; Order, saison 19 épisode 22, l'un des suspects essaie d'utiliser la maladie d'Addison (et fait donc faire des recherches biomédicales) pour prouver qu'il est le fils naturel de John Kennedy.
